--- a/Cenario1/FrequenciaTSOUT.xlsx
+++ b/Cenario1/FrequenciaTSOUT.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="FrequenciaTSOUT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -630,11 +630,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FrequenciaTSOUT!$B$1</c:f>
+              <c:f>FrequenciaTSOUT!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Frequencia</c:v>
+                  <c:v> Frequencia Relativa </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -662,21 +662,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FrequenciaTSOUT!$B$2:$B$5</c:f>
+              <c:f>FrequenciaTSOUT!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>132</c:v>
+                  <c:v>0.18232045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>0.30801105000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>0.24447514000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>0.26519336999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,11 +691,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127757696"/>
-        <c:axId val="174409216"/>
+        <c:axId val="126651392"/>
+        <c:axId val="128769024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127757696"/>
+        <c:axId val="126651392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174409216"/>
+        <c:crossAx val="128769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -712,7 +712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174409216"/>
+        <c:axId val="128769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127757696"/>
+        <c:crossAx val="126651392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
         <v>0.24447514000000001</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">D3+C4</f>
+        <f t="shared" ref="D4" si="0">D3+C4</f>
         <v>0.73480664000000007</v>
       </c>
       <c r="E4" s="1">
